--- a/GameDesign/Table/TurtleBomb_Object_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Object_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Finish_Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NormalMonster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,7 +262,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Finish</t>
+    <t>Next_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1052,7 +1060,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1067,7 +1075,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1082,7 +1090,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1093,13 +1101,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1115,7 +1138,7 @@
       <formula>NOT(ISERROR(SEARCH("2",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E10">
+  <conditionalFormatting sqref="E8:E11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",E8)))</formula>
     </cfRule>

--- a/GameDesign/Table/TurtleBomb_Object_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Object_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12291" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Object" sheetId="8" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -275,6 +275,22 @@
   </si>
   <si>
     <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giant_Boss1_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiantBoss1Monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,21 +957,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.0703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -972,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1021,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1036,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1051,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1066,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1096,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1124,6 +1140,36 @@
       </c>
       <c r="E11" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1184,7 @@
       <formula>NOT(ISERROR(SEARCH("2",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E11">
+  <conditionalFormatting sqref="E8:E13">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",E8)))</formula>
     </cfRule>

--- a/GameDesign/Table/TurtleBomb_Object_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Object_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12291" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Object" sheetId="8" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -291,6 +291,94 @@
   </si>
   <si>
     <t>GiantBoss1Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KickInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThrowInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonItemBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonItemBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +455,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,71 +498,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,99 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,48 +537,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -957,219 +893,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.35546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1285,7 @@
       <formula>NOT(ISERROR(SEARCH("2",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E13">
+  <conditionalFormatting sqref="E8:E24">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",E8)))</formula>
     </cfRule>

--- a/GameDesign/Table/TurtleBomb_Object_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Object_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Object" sheetId="8" r:id="rId1"/>
@@ -455,54 +455,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -537,41 +495,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -896,380 +838,380 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.69921875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="2">
         <v>0</v>
       </c>
     </row>

--- a/GameDesign/Table/TurtleBomb_Object_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Object_Table.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -379,6 +379,30 @@
   </si>
   <si>
     <t>NonItemBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,11 +859,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1212,6 +1234,66 @@
         <v>50</v>
       </c>
       <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1227,7 +1309,7 @@
       <formula>NOT(ISERROR(SEARCH("2",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E24">
+  <conditionalFormatting sqref="E8:E28">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",E8)))</formula>
     </cfRule>

--- a/GameDesign/Table/TurtleBomb_Object_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Object_Table.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -403,6 +403,21 @@
   </si>
   <si>
     <t>BombPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Needle02</t>
+  </si>
+  <si>
+    <t>Ice_Needle01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Needle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Needle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,9 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1295,6 +1312,36 @@
       </c>
       <c r="E28" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1356,7 @@
       <formula>NOT(ISERROR(SEARCH("2",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E28">
+  <conditionalFormatting sqref="E8:E30">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",E8)))</formula>
     </cfRule>

--- a/GameDesign/Table/TurtleBomb_Object_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Object_Table.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -214,210 +214,232 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NonBreakBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goblin_Boss_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End_Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giant_Boss1_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiantBoss1Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw_Item_Spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kick_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throw_Info_Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KickInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThrowInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonItemBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonItemBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Needle02</t>
+  </si>
+  <si>
+    <t>Ice_Needle01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Needle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Needle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BreakBox</t>
+  </si>
+  <si>
+    <t>BreakBox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NonBreakBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goblin_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goblin_Boss_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start_Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next_Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>End_Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Giant_Boss1_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GiantBoss1Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb_Item_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed_Item_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire_Item_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bomb_Info_Trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed_Info_Trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kick_Item_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Throw_Item_Spawn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Throw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire_Info_Trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kick_Info_Trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Throw_Info_Trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KickInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThrowInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonItemBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonItemBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Airdrop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice_Needle02</t>
-  </si>
-  <si>
-    <t>Ice_Needle01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice_Needle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice_Needle</t>
+    <t>Ice_Rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Box_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Box_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Box_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -944,11 +966,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -959,11 +981,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -974,11 +996,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -989,11 +1011,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1004,11 +1026,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1019,11 +1041,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1034,11 +1056,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1049,11 +1071,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1064,11 +1086,11 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1079,11 +1101,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1094,11 +1116,11 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1109,11 +1131,11 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1124,11 +1146,11 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1139,11 +1161,11 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1154,11 +1176,11 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1169,11 +1191,11 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1184,11 +1206,11 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1199,11 +1221,11 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1214,11 +1236,11 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1229,11 +1251,11 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1244,11 +1266,11 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1259,11 +1281,11 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1274,11 +1296,11 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1289,11 +1311,11 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1304,11 +1326,11 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1319,11 +1341,11 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1334,13 +1356,73 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1356,7 +1438,7 @@
       <formula>NOT(ISERROR(SEARCH("2",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E30">
+  <conditionalFormatting sqref="E8:E34">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",E8)))</formula>
     </cfRule>
